--- a/Project Definition/Column Definition.xlsx
+++ b/Project Definition/Column Definition.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BIMarathon2021\Project Definition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BIMarathon2022\Project Definition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC8DA20-3E44-4326-A4B3-191B25E8A064}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5480A8C2-1C2F-44A4-BDC3-32300179A7BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1812" xr2:uid="{293DDDEE-7493-4D0B-BF0B-3E3E35718646}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Country Code</t>
-  </si>
-  <si>
     <t>Country Code according to the World Bank country list. This might be different from the ISO country code.</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
   </si>
   <si>
     <t>The date on which the last disbursement was made (prior to the end of period date).</t>
-  </si>
-  <si>
-    <t>Country_Code</t>
   </si>
   <si>
     <t>Loan_Number</t>
@@ -792,6 +786,12 @@
       </rPr>
       <t xml:space="preserve"> - Unsigned loan that has been cancelled in full</t>
     </r>
+  </si>
+  <si>
+    <t>Guarantor_Country_Code</t>
+  </si>
+  <si>
+    <t>Country_Code</t>
   </si>
 </sst>
 </file>
@@ -1267,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD896B6-29B8-48FA-B07F-8023A3827499}">
   <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="82" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1281,7 +1281,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1317,10 +1317,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1328,10 +1328,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1339,10 +1339,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1350,10 +1350,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
@@ -1361,10 +1361,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -1372,10 +1372,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="138" x14ac:dyDescent="0.3">
@@ -1383,10 +1383,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1394,10 +1394,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1405,10 +1405,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1416,10 +1416,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1427,10 +1427,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1438,10 +1438,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1449,10 +1449,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1460,10 +1460,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1471,10 +1471,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1482,10 +1482,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1493,10 +1493,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1504,10 +1504,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1515,10 +1515,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1526,10 +1526,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
@@ -1537,10 +1537,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1548,10 +1548,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1559,10 +1559,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1570,10 +1570,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1581,10 +1581,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1592,10 +1592,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1603,10 +1603,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1614,10 +1614,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
